--- a/comments/comments.xlsx
+++ b/comments/comments.xlsx
@@ -1,41 +1,62 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Downloads\Documents\GitHub\COMP523EdibleCampus\comments\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E78BB34-878B-40FB-A4B5-13AE51C5C5D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-17907" yWindow="1427" windowWidth="16560" windowHeight="10026" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>test 1</t>
+  </si>
+  <si>
+    <t>04-09-2023</t>
+  </si>
+  <si>
+    <t>test 2</t>
+  </si>
+  <si>
+    <t>test 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test 4 </t>
+  </si>
+  <si>
+    <t>test 8</t>
+  </si>
+  <si>
+    <t>this is good</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -65,13 +86,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,71 +425,99 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.35" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="20.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>ID</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Comment</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Time</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" t="str">
-        <v>test 1</v>
-      </c>
-      <c r="C2" t="str">
-        <v>04-09-2023</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="str">
-        <v>test 2</v>
-      </c>
-      <c r="C3" t="str">
-        <v>04-09-2023</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="str">
-        <v>test 3</v>
-      </c>
-      <c r="C4" t="str">
-        <v>04-09-2023</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" t="str">
-        <v xml:space="preserve">test 4 </v>
-      </c>
-      <c r="C5" t="str">
-        <v>04-09-2023</v>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C5"/>
+    <ignoredError sqref="A1:C7" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/comments/comments.xlsx
+++ b/comments/comments.xlsx
@@ -1,62 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Downloads\Documents\GitHub\COMP523EdibleCampus\comments\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E78BB34-878B-40FB-A4B5-13AE51C5C5D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-17907" yWindow="1427" windowWidth="16560" windowHeight="10026" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>test 1</t>
-  </si>
-  <si>
-    <t>04-09-2023</t>
-  </si>
-  <si>
-    <t>test 2</t>
-  </si>
-  <si>
-    <t>test 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test 4 </t>
-  </si>
-  <si>
-    <t>test 8</t>
-  </si>
-  <si>
-    <t>this is good</t>
-  </si>
-</sst>
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -86,21 +65,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -425,99 +396,115 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.35" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.3">
+    <row r="1">
+      <c r="A1" t="str">
+        <v>ID</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Comment</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Time</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.3">
+      <c r="B2" t="str">
+        <v>test 1</v>
+      </c>
+      <c r="C2" t="str">
+        <v>04-09-2023</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.3">
+      <c r="B3" t="str">
+        <v>test 2</v>
+      </c>
+      <c r="C3" t="str">
+        <v>04-09-2023</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.3">
+      <c r="B4" t="str">
+        <v>test 3</v>
+      </c>
+      <c r="C4" t="str">
+        <v>04-09-2023</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.3">
+      <c r="B5" t="str">
+        <v xml:space="preserve">test 4 </v>
+      </c>
+      <c r="C5" t="str">
+        <v>04-09-2023</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.3">
+      <c r="B6" t="str">
+        <v>test 8</v>
+      </c>
+      <c r="C6" t="str">
+        <v>04-09-2023</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
+      <c r="B7" t="str">
+        <v>this is good</v>
+      </c>
+      <c r="C7" t="str">
+        <v>04-09-2023</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="str">
+        <v>test 7</v>
+      </c>
+      <c r="C8" t="str">
+        <v>04-09-2023</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="str">
+        <v>test test test</v>
+      </c>
+      <c r="C9" t="str">
+        <v>04-09-2023</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C7" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C9"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/comments/comments.xlsx
+++ b/comments/comments.xlsx
@@ -1,62 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Downloads\Documents\GitHub\COMP523EdibleCampus\comments\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E78BB34-878B-40FB-A4B5-13AE51C5C5D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-17907" yWindow="1427" windowWidth="16560" windowHeight="10026" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>test 1</t>
-  </si>
-  <si>
-    <t>04-09-2023</t>
-  </si>
-  <si>
-    <t>test 2</t>
-  </si>
-  <si>
-    <t>test 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test 4 </t>
-  </si>
-  <si>
-    <t>test 8</t>
-  </si>
-  <si>
-    <t>this is good</t>
-  </si>
-</sst>
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -86,21 +65,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -425,99 +396,104 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.35" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.3">
+    <row r="1">
+      <c r="A1" t="str">
+        <v>ID</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Comment</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Time</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.3">
+      <c r="B2" t="str">
+        <v>test 1</v>
+      </c>
+      <c r="C2" t="str">
+        <v>04-09-2023</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.3">
+      <c r="B3" t="str">
+        <v>test 2</v>
+      </c>
+      <c r="C3" t="str">
+        <v>04-09-2023</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.3">
+      <c r="B4" t="str">
+        <v>test 3</v>
+      </c>
+      <c r="C4" t="str">
+        <v>04-09-2023</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.3">
+      <c r="B5" t="str">
+        <v xml:space="preserve">test 4 </v>
+      </c>
+      <c r="C5" t="str">
+        <v>04-09-2023</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.3">
+      <c r="B6" t="str">
+        <v>test 8</v>
+      </c>
+      <c r="C6" t="str">
+        <v>04-09-2023</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
+      <c r="B7" t="str">
+        <v>this is good</v>
+      </c>
+      <c r="C7" t="str">
+        <v>04-09-2023</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="str">
+        <v>testtestetest</v>
+      </c>
+      <c r="C8" t="str">
+        <v>04-10-2023</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C7" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C8"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/comments/comments.xlsx
+++ b/comments/comments.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -490,10 +490,21 @@
         <v>04-10-2023</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="str">
+        <v>test test test 4 10</v>
+      </c>
+      <c r="C9" t="str">
+        <v>04-10-2023</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C9"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/comments/comments.xlsx
+++ b/comments/comments.xlsx
@@ -397,9 +397,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -424,9 +424,189 @@
         <v>04-10-2023</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="str">
+        <v>test again</v>
+      </c>
+      <c r="C3" t="str">
+        <v>04-10-2023</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="str">
+        <v>test 3</v>
+      </c>
+      <c r="C4" t="str">
+        <v>04-10-2023</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="str">
+        <v>test 4</v>
+      </c>
+      <c r="C5" t="str">
+        <v>04-10-2023</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="str">
+        <v xml:space="preserve">test 5 </v>
+      </c>
+      <c r="C6" t="str">
+        <v>04-10-2023</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="str">
+        <v>test 6</v>
+      </c>
+      <c r="C7" t="str">
+        <v>04-10-2023</v>
+      </c>
+    </row>
+    <row r="8" xml:space="preserve">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="str" xml:space="preserve">
+        <v xml:space="preserve">tst test 6
+</v>
+      </c>
+      <c r="C8" t="str">
+        <v>04-10-2023</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="str">
+        <v>test 7</v>
+      </c>
+      <c r="C9" t="str">
+        <v>04-10-2023</v>
+      </c>
+    </row>
+    <row r="10" xml:space="preserve">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="str" xml:space="preserve">
+        <v xml:space="preserve">new test
+</v>
+      </c>
+      <c r="C10" t="str">
+        <v>04-10-2023</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="str">
+        <v>new try</v>
+      </c>
+      <c r="C11" t="str">
+        <v>04-10-2023</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="str">
+        <v>eferere</v>
+      </c>
+      <c r="C12" t="str">
+        <v>04-10-2023</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="str">
+        <v>just test test</v>
+      </c>
+      <c r="C13" t="str">
+        <v>04-10-2023</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="str">
+        <v>treestesfdsaete</v>
+      </c>
+      <c r="C14" t="str">
+        <v>04-10-2023</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="str">
+        <v>most recent comments</v>
+      </c>
+      <c r="C15" t="str">
+        <v>04-10-2023</v>
+      </c>
+    </row>
+    <row r="16" xml:space="preserve">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="str" xml:space="preserve">
+        <v xml:space="preserve">jdslkfdsa er erakldf erkajfd aekrejalks dfjsalkre
+a ereal;rkesa;skrjeas 
+ae r;alsejres</v>
+      </c>
+      <c r="C16" t="str">
+        <v>04-10-2023</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="str">
+        <v>tstest</v>
+      </c>
+      <c r="C17" t="str">
+        <v>04-10-2023</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="str">
+        <v xml:space="preserve">nice test </v>
+      </c>
+      <c r="C18" t="str">
+        <v>04-10-2023</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C18"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/comments/comments.xlsx
+++ b/comments/comments.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -604,9 +604,20 @@
         <v>04-10-2023</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="str">
+        <v>I like this garden. The plants look great.</v>
+      </c>
+      <c r="C19" t="str">
+        <v>04-10-2023</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C18"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C19"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/comments/comments.xlsx
+++ b/comments/comments.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -615,9 +615,20 @@
         <v>04-10-2023</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="str">
+        <v>test</v>
+      </c>
+      <c r="C20" t="str">
+        <v>04-10-2023</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C19"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C20"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/comments/comments.xlsx
+++ b/comments/comments.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -626,9 +626,64 @@
         <v>04-10-2023</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="str">
+        <v>let us test the comment system</v>
+      </c>
+      <c r="C21" t="str">
+        <v>04-10-2023</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="str">
+        <v>test again</v>
+      </c>
+      <c r="C22" t="str">
+        <v>04-10-2023</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="str">
+        <v xml:space="preserve">test it </v>
+      </c>
+      <c r="C23" t="str">
+        <v>04-10-2023</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="str">
+        <v>this ID should be 22</v>
+      </c>
+      <c r="C24" t="str">
+        <v>04-10-2023</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="str">
+        <v>test 23</v>
+      </c>
+      <c r="C25" t="str">
+        <v>04-10-2023</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C20"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C25"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/comments/comments.xlsx
+++ b/comments/comments.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -681,9 +681,31 @@
         <v>04-10-2023</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="str">
+        <v>I like this garden</v>
+      </c>
+      <c r="C26" t="str">
+        <v>04-10-2023</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="str">
+        <v>test id should be 25</v>
+      </c>
+      <c r="C27" t="str">
+        <v>04-10-2023</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C25"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C27"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/comments/comments.xlsx
+++ b/comments/comments.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -703,9 +703,42 @@
         <v>04-10-2023</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="str">
+        <v>test test</v>
+      </c>
+      <c r="C28" t="str">
+        <v>04-11-2023</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="str">
+        <v>test again</v>
+      </c>
+      <c r="C29" t="str">
+        <v>04-11-2023</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="str">
+        <v>test</v>
+      </c>
+      <c r="C30" t="str">
+        <v>04-11-2023</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C27"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C30"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/comments/comments.xlsx
+++ b/comments/comments.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -736,9 +736,86 @@
         <v>04-11-2023</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="str">
+        <v>test again</v>
+      </c>
+      <c r="C31" t="str">
+        <v>04-11-2023</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="str">
+        <v>rewr</v>
+      </c>
+      <c r="C32" t="str">
+        <v>04-11-2023</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="str">
+        <v>sawewe</v>
+      </c>
+      <c r="C33" t="str">
+        <v>04-11-2023</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="str">
+        <v>erwerewrw</v>
+      </c>
+      <c r="C34" t="str">
+        <v>04-11-2023</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="str">
+        <v>ewrwer</v>
+      </c>
+      <c r="C35" t="str">
+        <v>04-11-2023</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="str">
+        <v>wewqe</v>
+      </c>
+      <c r="C36" t="str">
+        <v>04-11-2023</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="str">
+        <v>dfsfsdfsfsd</v>
+      </c>
+      <c r="C37" t="str">
+        <v>04-11-2023</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C30"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C37"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/comments/comments.xlsx
+++ b/comments/comments.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -813,9 +813,20 @@
         <v>04-11-2023</v>
       </c>
     </row>
+    <row r="38">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="str">
+        <v>dsfdsfsd</v>
+      </c>
+      <c r="C38" t="str">
+        <v>04-11-2023</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C37"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C38"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/comments/comments.xlsx
+++ b/comments/comments.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -824,9 +824,53 @@
         <v>04-11-2023</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="str">
+        <v>erwrewrw</v>
+      </c>
+      <c r="C39" t="str">
+        <v>04-11-2023</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="str">
+        <v>erwerwrew</v>
+      </c>
+      <c r="C40" t="str">
+        <v>04-11-2023</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="str">
+        <v>dfdsfsfs</v>
+      </c>
+      <c r="C41" t="str">
+        <v>04-11-2023</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="str">
+        <v>erwrwerw</v>
+      </c>
+      <c r="C42" t="str">
+        <v>04-11-2023</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C38"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C42"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/comments/comments.xlsx
+++ b/comments/comments.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -868,9 +868,42 @@
         <v>04-11-2023</v>
       </c>
     </row>
+    <row r="43">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="str">
+        <v>rewrwer</v>
+      </c>
+      <c r="C43" t="str">
+        <v>04-11-2023</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="str">
+        <v>tertertre</v>
+      </c>
+      <c r="C44" t="str">
+        <v>04-11-2023</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" t="str">
+        <v>rewrwe</v>
+      </c>
+      <c r="C45" t="str">
+        <v>04-11-2023</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C42"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C45"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/comments/comments.xlsx
+++ b/comments/comments.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -901,9 +901,53 @@
         <v>04-11-2023</v>
       </c>
     </row>
+    <row r="46">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="str">
+        <v>test test</v>
+      </c>
+      <c r="C46" t="str">
+        <v>04-11-2023</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" t="str">
+        <v>test again</v>
+      </c>
+      <c r="C47" t="str">
+        <v>04-11-2023</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" t="str">
+        <v>testestes</v>
+      </c>
+      <c r="C48" t="str">
+        <v>04-11-2023</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" t="str">
+        <v>tstest</v>
+      </c>
+      <c r="C49" t="str">
+        <v>04-11-2023</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C45"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C49"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/comments/comments.xlsx
+++ b/comments/comments.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -945,9 +945,31 @@
         <v>04-11-2023</v>
       </c>
     </row>
+    <row r="50">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" t="str">
+        <v>test</v>
+      </c>
+      <c r="C50" t="str">
+        <v>04-11-2023</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" t="str">
+        <v>test test</v>
+      </c>
+      <c r="C51" t="str">
+        <v>04-11-2023</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C49"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C51"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/comments/comments.xlsx
+++ b/comments/comments.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -967,9 +967,31 @@
         <v>04-11-2023</v>
       </c>
     </row>
+    <row r="52">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" t="str">
+        <v>test</v>
+      </c>
+      <c r="C52" t="str">
+        <v>04-12-2023</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" t="str">
+        <v>i7ryuk</v>
+      </c>
+      <c r="C53" t="str">
+        <v>04-13-2023</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C51"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C53"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/comments/comments.xlsx
+++ b/comments/comments.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -989,9 +989,53 @@
         <v>04-13-2023</v>
       </c>
     </row>
+    <row r="54">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" t="str">
+        <v>fdgrt</v>
+      </c>
+      <c r="C54" t="str">
+        <v>04-14-2023</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" t="str">
+        <v>sawesda</v>
+      </c>
+      <c r="C55" t="str">
+        <v>2023-04-15T01:50:48.080Z</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" t="str">
+        <v>ersdfs</v>
+      </c>
+      <c r="C56" t="str">
+        <v>2023-04-15T01:52:14.613Z</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" t="str">
+        <v>qwewqe</v>
+      </c>
+      <c r="C57" t="str">
+        <v>2023-04-15T01:52:44.738Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C53"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C57"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/comments/comments.xlsx
+++ b/comments/comments.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -484,7 +484,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="str" xml:space="preserve">
-        <v xml:space="preserve">tst test 6
+        <v xml:space="preserve">tst test 6_x000d_
 </v>
       </c>
       <c r="C8" t="str">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="str" xml:space="preserve">
-        <v xml:space="preserve">new test
+        <v xml:space="preserve">new test_x000d_
 </v>
       </c>
       <c r="C10" t="str">
@@ -525,58 +525,25 @@
         <v>04-10-2023</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="str">
-        <v>eferere</v>
-      </c>
-      <c r="C12" t="str">
-        <v>04-10-2023</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="str">
-        <v>just test test</v>
-      </c>
-      <c r="C13" t="str">
-        <v>04-10-2023</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="str">
-        <v>treestesfdsaete</v>
-      </c>
-      <c r="C14" t="str">
-        <v>04-10-2023</v>
-      </c>
-    </row>
-    <row r="15">
+    <row r="15" xml:space="preserve">
       <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" t="str">
-        <v>most recent comments</v>
+        <v>14</v>
+      </c>
+      <c r="B15" t="str" xml:space="preserve">
+        <v xml:space="preserve">jdslkfdsa er erakldf erkajfd aekrejalks dfjsalkre_x000d_
+a ereal;rkesa;skrjeas _x000d_
+ae r;alsejres</v>
       </c>
       <c r="C15" t="str">
         <v>04-10-2023</v>
       </c>
     </row>
-    <row r="16" xml:space="preserve">
+    <row r="16">
       <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" t="str" xml:space="preserve">
-        <v xml:space="preserve">jdslkfdsa er erakldf erkajfd aekrejalks dfjsalkre
-a ereal;rkesa;skrjeas 
-ae r;alsejres</v>
+        <v>15</v>
+      </c>
+      <c r="B16" t="str">
+        <v>tstest</v>
       </c>
       <c r="C16" t="str">
         <v>04-10-2023</v>
@@ -584,10 +551,10 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="str">
-        <v>tstest</v>
+        <v xml:space="preserve">nice test </v>
       </c>
       <c r="C17" t="str">
         <v>04-10-2023</v>
@@ -595,10 +562,10 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="str">
-        <v xml:space="preserve">nice test </v>
+        <v>I like this garden. The plants look great.</v>
       </c>
       <c r="C18" t="str">
         <v>04-10-2023</v>
@@ -606,10 +573,10 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" t="str">
-        <v>I like this garden. The plants look great.</v>
+        <v>test</v>
       </c>
       <c r="C19" t="str">
         <v>04-10-2023</v>
@@ -617,10 +584,10 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" t="str">
-        <v>test</v>
+        <v>let us test the comment system</v>
       </c>
       <c r="C20" t="str">
         <v>04-10-2023</v>
@@ -628,10 +595,10 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="str">
-        <v>let us test the comment system</v>
+        <v>test again</v>
       </c>
       <c r="C21" t="str">
         <v>04-10-2023</v>
@@ -639,10 +606,10 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" t="str">
-        <v>test again</v>
+        <v xml:space="preserve">test it </v>
       </c>
       <c r="C22" t="str">
         <v>04-10-2023</v>
@@ -650,10 +617,10 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" t="str">
-        <v xml:space="preserve">test it </v>
+        <v>this ID should be 22</v>
       </c>
       <c r="C23" t="str">
         <v>04-10-2023</v>
@@ -661,10 +628,10 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" t="str">
-        <v>this ID should be 22</v>
+        <v>test 23</v>
       </c>
       <c r="C24" t="str">
         <v>04-10-2023</v>
@@ -672,10 +639,10 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="str">
-        <v>test 23</v>
+        <v>I like this garden</v>
       </c>
       <c r="C25" t="str">
         <v>04-10-2023</v>
@@ -683,10 +650,10 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" t="str">
-        <v>I like this garden</v>
+        <v>test id should be 25</v>
       </c>
       <c r="C26" t="str">
         <v>04-10-2023</v>
@@ -694,21 +661,21 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" t="str">
-        <v>test id should be 25</v>
+        <v>test test</v>
       </c>
       <c r="C27" t="str">
-        <v>04-10-2023</v>
+        <v>04-11-2023</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" t="str">
-        <v>test test</v>
+        <v>test again</v>
       </c>
       <c r="C28" t="str">
         <v>04-11-2023</v>
@@ -716,10 +683,10 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" t="str">
-        <v>test again</v>
+        <v>test</v>
       </c>
       <c r="C29" t="str">
         <v>04-11-2023</v>
@@ -727,10 +694,10 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" t="str">
-        <v>test</v>
+        <v>test again</v>
       </c>
       <c r="C30" t="str">
         <v>04-11-2023</v>
@@ -738,10 +705,10 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" t="str">
-        <v>test again</v>
+        <v>rewr</v>
       </c>
       <c r="C31" t="str">
         <v>04-11-2023</v>
@@ -749,10 +716,10 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" t="str">
-        <v>rewr</v>
+        <v>sawewe</v>
       </c>
       <c r="C32" t="str">
         <v>04-11-2023</v>
@@ -760,10 +727,10 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" t="str">
-        <v>sawewe</v>
+        <v>erwerewrw</v>
       </c>
       <c r="C33" t="str">
         <v>04-11-2023</v>
@@ -771,10 +738,10 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" t="str">
-        <v>erwerewrw</v>
+        <v>ewrwer</v>
       </c>
       <c r="C34" t="str">
         <v>04-11-2023</v>
@@ -782,10 +749,10 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" t="str">
-        <v>ewrwer</v>
+        <v>wewqe</v>
       </c>
       <c r="C35" t="str">
         <v>04-11-2023</v>
@@ -793,10 +760,10 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" t="str">
-        <v>wewqe</v>
+        <v>dfsfsdfsfsd</v>
       </c>
       <c r="C36" t="str">
         <v>04-11-2023</v>
@@ -804,10 +771,10 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" t="str">
-        <v>dfsfsdfsfsd</v>
+        <v>dsfdsfsd</v>
       </c>
       <c r="C37" t="str">
         <v>04-11-2023</v>
@@ -815,10 +782,10 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" t="str">
-        <v>dsfdsfsd</v>
+        <v>erwrewrw</v>
       </c>
       <c r="C38" t="str">
         <v>04-11-2023</v>
@@ -826,10 +793,10 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" t="str">
-        <v>erwrewrw</v>
+        <v>erwerwrew</v>
       </c>
       <c r="C39" t="str">
         <v>04-11-2023</v>
@@ -837,10 +804,10 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" t="str">
-        <v>erwerwrew</v>
+        <v>dfdsfsfs</v>
       </c>
       <c r="C40" t="str">
         <v>04-11-2023</v>
@@ -848,10 +815,10 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" t="str">
-        <v>dfdsfsfs</v>
+        <v>erwrwerw</v>
       </c>
       <c r="C41" t="str">
         <v>04-11-2023</v>
@@ -859,10 +826,10 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" t="str">
-        <v>erwrwerw</v>
+        <v>rewrwer</v>
       </c>
       <c r="C42" t="str">
         <v>04-11-2023</v>
@@ -870,10 +837,10 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" t="str">
-        <v>rewrwer</v>
+        <v>tertertre</v>
       </c>
       <c r="C43" t="str">
         <v>04-11-2023</v>
@@ -881,10 +848,10 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" t="str">
-        <v>tertertre</v>
+        <v>rewrwe</v>
       </c>
       <c r="C44" t="str">
         <v>04-11-2023</v>
@@ -892,10 +859,10 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" t="str">
-        <v>rewrwe</v>
+        <v>test test</v>
       </c>
       <c r="C45" t="str">
         <v>04-11-2023</v>
@@ -903,10 +870,10 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" t="str">
-        <v>test test</v>
+        <v>test again</v>
       </c>
       <c r="C46" t="str">
         <v>04-11-2023</v>
@@ -914,10 +881,10 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" t="str">
-        <v>test again</v>
+        <v>testestes</v>
       </c>
       <c r="C47" t="str">
         <v>04-11-2023</v>
@@ -925,10 +892,10 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" t="str">
-        <v>testestes</v>
+        <v>tstest</v>
       </c>
       <c r="C48" t="str">
         <v>04-11-2023</v>
@@ -936,10 +903,10 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" t="str">
-        <v>tstest</v>
+        <v>test</v>
       </c>
       <c r="C49" t="str">
         <v>04-11-2023</v>
@@ -947,10 +914,10 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" t="str">
-        <v>test</v>
+        <v>test test</v>
       </c>
       <c r="C50" t="str">
         <v>04-11-2023</v>
@@ -958,84 +925,108 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" t="str">
-        <v>test test</v>
+        <v>test</v>
       </c>
       <c r="C51" t="str">
-        <v>04-11-2023</v>
+        <v>04-12-2023</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" t="str">
-        <v>test</v>
+        <v>i7ryuk</v>
       </c>
       <c r="C52" t="str">
-        <v>04-12-2023</v>
+        <v>04-13-2023</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" t="str">
-        <v>i7ryuk</v>
+        <v>fdgrt</v>
       </c>
       <c r="C53" t="str">
-        <v>04-13-2023</v>
+        <v>04-14-2023</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" t="str">
-        <v>fdgrt</v>
+        <v>sawesda</v>
       </c>
       <c r="C54" t="str">
-        <v>04-14-2023</v>
+        <v>2023-04-15T01:50:48.080Z</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" t="str">
-        <v>sawesda</v>
+        <v>ersdfs</v>
       </c>
       <c r="C55" t="str">
-        <v>2023-04-15T01:50:48.080Z</v>
+        <v>2023-04-15T01:52:14.613Z</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" t="str">
-        <v>ersdfs</v>
+        <v>qwewqe</v>
       </c>
       <c r="C56" t="str">
-        <v>2023-04-15T01:52:14.613Z</v>
+        <v>2023-04-15T01:52:44.738Z</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" t="str">
-        <v>qwewqe</v>
+        <v>ersdfas</v>
       </c>
       <c r="C57" t="str">
-        <v>2023-04-15T01:52:44.738Z</v>
+        <v>04-14-2023</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="str">
+        <v>ewrwwerwe</v>
+      </c>
+      <c r="C58" t="str">
+        <v>2023-04-15T02:14:09.711Z</v>
+      </c>
+    </row>
+    <row r="60" xml:space="preserve">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" t="str" xml:space="preserve">
+        <v xml:space="preserve">test testtest
+</v>
+      </c>
+      <c r="C60" t="str">
+        <v>2023-04-15T19:51:43.709Z</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C57"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C60"/>
   </ignoredErrors>
 </worksheet>
 </file>